--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H2">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I2">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J2">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q2">
-        <v>38.18579623010289</v>
+        <v>144.40331196885</v>
       </c>
       <c r="R2">
-        <v>343.672166070926</v>
+        <v>1299.62980771965</v>
       </c>
       <c r="S2">
-        <v>0.002901300163244487</v>
+        <v>0.01401064740353042</v>
       </c>
       <c r="T2">
-        <v>0.002901300163244486</v>
+        <v>0.01401064740353042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H3">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I3">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J3">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>263.560998</v>
       </c>
       <c r="O3">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P3">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q3">
-        <v>35.19362219304868</v>
+        <v>128.765273329214</v>
       </c>
       <c r="R3">
-        <v>316.7425997374381</v>
+        <v>1158.887459962926</v>
       </c>
       <c r="S3">
-        <v>0.002673959217677986</v>
+        <v>0.0124933757947602</v>
       </c>
       <c r="T3">
-        <v>0.002673959217677986</v>
+        <v>0.0124933757947602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H4">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I4">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J4">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N4">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O4">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P4">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q4">
-        <v>35.65502357475333</v>
+        <v>200.9005418718936</v>
       </c>
       <c r="R4">
-        <v>320.89521217278</v>
+        <v>1808.104876847043</v>
       </c>
       <c r="S4">
-        <v>0.002709015810343864</v>
+        <v>0.01949225829358044</v>
       </c>
       <c r="T4">
-        <v>0.002709015810343864</v>
+        <v>0.01949225829358044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H5">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I5">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J5">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N5">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O5">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P5">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q5">
-        <v>17.65601884045767</v>
+        <v>26.91239278203633</v>
       </c>
       <c r="R5">
-        <v>158.904169564119</v>
+        <v>242.211535038327</v>
       </c>
       <c r="S5">
-        <v>0.001341478125410548</v>
+        <v>0.002611159265763695</v>
       </c>
       <c r="T5">
-        <v>0.001341478125410547</v>
+        <v>0.002611159265763695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H6">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I6">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J6">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N6">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O6">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P6">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q6">
-        <v>29.06054771128522</v>
+        <v>132.8041648257287</v>
       </c>
       <c r="R6">
-        <v>261.544929401567</v>
+        <v>1195.237483431558</v>
       </c>
       <c r="S6">
-        <v>0.002207977314671247</v>
+        <v>0.01288524689444101</v>
       </c>
       <c r="T6">
-        <v>0.002207977314671247</v>
+        <v>0.01288524689444101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4005936666666667</v>
+        <v>1.465679</v>
       </c>
       <c r="H7">
-        <v>1.201781</v>
+        <v>4.397037</v>
       </c>
       <c r="I7">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="J7">
-        <v>0.01390670970586346</v>
+        <v>0.09079567376812814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N7">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O7">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P7">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q7">
-        <v>27.283752826246</v>
+        <v>302.0166109289813</v>
       </c>
       <c r="R7">
-        <v>245.553775436214</v>
+        <v>2718.149498360832</v>
       </c>
       <c r="S7">
-        <v>0.002072979074515333</v>
+        <v>0.02930298611605236</v>
       </c>
       <c r="T7">
-        <v>0.002072979074515332</v>
+        <v>0.02930298611605236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I8">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J8">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N8">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O8">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P8">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q8">
-        <v>262.5838954890115</v>
+        <v>271.3992253851999</v>
       </c>
       <c r="R8">
-        <v>2363.255059401104</v>
+        <v>2442.593028466799</v>
       </c>
       <c r="S8">
-        <v>0.01995073493444842</v>
+        <v>0.02633235208125678</v>
       </c>
       <c r="T8">
-        <v>0.01995073493444842</v>
+        <v>0.02633235208125677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I9">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J9">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>263.560998</v>
       </c>
       <c r="O9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q9">
         <v>242.0082681039947</v>
@@ -1013,10 +1013,10 @@
         <v>2178.074412935952</v>
       </c>
       <c r="S9">
-        <v>0.01838742928196743</v>
+        <v>0.02348071153572676</v>
       </c>
       <c r="T9">
-        <v>0.01838742928196743</v>
+        <v>0.02348071153572676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I10">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J10">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N10">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O10">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P10">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q10">
-        <v>245.1810858570133</v>
+        <v>377.5831087257928</v>
       </c>
       <c r="R10">
-        <v>2206.62977271312</v>
+        <v>3398.247978532136</v>
       </c>
       <c r="S10">
-        <v>0.01862849526915565</v>
+        <v>0.0366347816387144</v>
       </c>
       <c r="T10">
-        <v>0.01862849526915564</v>
+        <v>0.03663478163871439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I11">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J11">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N11">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O11">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P11">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q11">
-        <v>121.4112749677307</v>
+        <v>50.58057502090044</v>
       </c>
       <c r="R11">
-        <v>1092.701474709576</v>
+        <v>455.2251751881039</v>
       </c>
       <c r="S11">
-        <v>0.009224648603920159</v>
+        <v>0.004907550889404286</v>
       </c>
       <c r="T11">
-        <v>0.009224648603920159</v>
+        <v>0.004907550889404286</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I12">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J12">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N12">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O12">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P12">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q12">
-        <v>199.8342990438408</v>
+        <v>249.5991744940462</v>
       </c>
       <c r="R12">
-        <v>1798.508691394568</v>
+        <v>2246.392570446416</v>
       </c>
       <c r="S12">
-        <v>0.01518311366205551</v>
+        <v>0.02421721481570112</v>
       </c>
       <c r="T12">
-        <v>0.01518311366205551</v>
+        <v>0.02421721481570111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>8.264023999999999</v>
       </c>
       <c r="I13">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="J13">
-        <v>0.09562922260402569</v>
+        <v>0.170646193588087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N13">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O13">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P13">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q13">
-        <v>187.616203090384</v>
+        <v>567.6259993072071</v>
       </c>
       <c r="R13">
-        <v>1688.545827813456</v>
+        <v>5108.633993764864</v>
       </c>
       <c r="S13">
-        <v>0.01425480085247853</v>
+        <v>0.05507358262728367</v>
       </c>
       <c r="T13">
-        <v>0.01425480085247852</v>
+        <v>0.05507358262728365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H14">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I14">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J14">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N14">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O14">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P14">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q14">
-        <v>718.7712499697448</v>
+        <v>658.8859795418999</v>
       </c>
       <c r="R14">
-        <v>6468.941249727704</v>
+        <v>5929.9738158771</v>
       </c>
       <c r="S14">
-        <v>0.05461117354490858</v>
+        <v>0.06392802916101173</v>
       </c>
       <c r="T14">
-        <v>0.05461117354490857</v>
+        <v>0.06392802916101173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H15">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I15">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J15">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>263.560998</v>
       </c>
       <c r="O15">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P15">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q15">
-        <v>662.4495574801947</v>
+        <v>587.5324609369162</v>
       </c>
       <c r="R15">
-        <v>5962.046017321753</v>
+        <v>5287.792148432245</v>
       </c>
       <c r="S15">
-        <v>0.05033193488167704</v>
+        <v>0.05700499549547276</v>
       </c>
       <c r="T15">
-        <v>0.05033193488167703</v>
+        <v>0.05700499549547276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H16">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I16">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J16">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q16">
-        <v>671.1345157790131</v>
+        <v>916.6725369174047</v>
       </c>
       <c r="R16">
-        <v>6040.210642011119</v>
+        <v>8250.052832256642</v>
       </c>
       <c r="S16">
-        <v>0.05099180513234028</v>
+        <v>0.08893962004153996</v>
       </c>
       <c r="T16">
-        <v>0.05099180513234027</v>
+        <v>0.08893962004153995</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H17">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I17">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J17">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N17">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O17">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P17">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q17">
-        <v>332.3392461158307</v>
+        <v>122.7963405980153</v>
       </c>
       <c r="R17">
-        <v>2991.053215042476</v>
+        <v>1105.167065382138</v>
       </c>
       <c r="S17">
-        <v>0.02525064301915203</v>
+        <v>0.01191424356619846</v>
       </c>
       <c r="T17">
-        <v>0.02525064301915202</v>
+        <v>0.01191424356619846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H18">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I18">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J18">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N18">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O18">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P18">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q18">
-        <v>547.0066953004741</v>
+        <v>605.9611863148948</v>
       </c>
       <c r="R18">
-        <v>4923.060257704267</v>
+        <v>5453.650676834053</v>
       </c>
       <c r="S18">
-        <v>0.04156075742948615</v>
+        <v>0.05879303186283148</v>
       </c>
       <c r="T18">
-        <v>0.04156075742948614</v>
+        <v>0.05879303186283148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.540374666666666</v>
+        <v>6.687626000000001</v>
       </c>
       <c r="H19">
-        <v>22.621124</v>
+        <v>20.062878</v>
       </c>
       <c r="I19">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="J19">
-        <v>0.2617659995359728</v>
+        <v>0.4142841021664715</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N19">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O19">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P19">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q19">
-        <v>513.562084828984</v>
+        <v>1378.046720789845</v>
       </c>
       <c r="R19">
-        <v>4622.058763460856</v>
+        <v>12402.42048710861</v>
       </c>
       <c r="S19">
-        <v>0.03901968552840873</v>
+        <v>0.1337041820394171</v>
       </c>
       <c r="T19">
-        <v>0.03901968552840872</v>
+        <v>0.1337041820394171</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H20">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I20">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J20">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N20">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O20">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P20">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q20">
-        <v>372.6269132704874</v>
+        <v>235.6264548517</v>
       </c>
       <c r="R20">
-        <v>3353.642219434386</v>
+        <v>2120.6380936653</v>
       </c>
       <c r="S20">
-        <v>0.02831164021790626</v>
+        <v>0.02286151981460913</v>
       </c>
       <c r="T20">
-        <v>0.02831164021790626</v>
+        <v>0.02286151981460913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H21">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I21">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J21">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>263.560998</v>
       </c>
       <c r="O21">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P21">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q21">
-        <v>343.4285021996021</v>
+        <v>210.1094805160547</v>
       </c>
       <c r="R21">
-        <v>3090.856519796419</v>
+        <v>1890.985324644492</v>
       </c>
       <c r="S21">
-        <v>0.02609318824964123</v>
+        <v>0.02038575021246329</v>
       </c>
       <c r="T21">
-        <v>0.02609318824964123</v>
+        <v>0.02038575021246329</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H22">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I22">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J22">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N22">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O22">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P22">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q22">
-        <v>347.93097666962</v>
+        <v>327.8143819116229</v>
       </c>
       <c r="R22">
-        <v>3131.37879002658</v>
+        <v>2950.329437204606</v>
       </c>
       <c r="S22">
-        <v>0.0264352795821396</v>
+        <v>0.03180599984964863</v>
       </c>
       <c r="T22">
-        <v>0.0264352795821396</v>
+        <v>0.03180599984964863</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H23">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I23">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J23">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q23">
-        <v>172.292015636401</v>
+        <v>43.91361677477045</v>
       </c>
       <c r="R23">
-        <v>1550.628140727609</v>
+        <v>395.222550972934</v>
       </c>
       <c r="S23">
-        <v>0.01309049181741431</v>
+        <v>0.004260693141011808</v>
       </c>
       <c r="T23">
-        <v>0.01309049181741431</v>
+        <v>0.004260693141011808</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H24">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I24">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J24">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N24">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O24">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P24">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q24">
-        <v>283.5803691601263</v>
+        <v>216.6998396420262</v>
       </c>
       <c r="R24">
-        <v>2552.223322441137</v>
+        <v>1950.298556778236</v>
       </c>
       <c r="S24">
-        <v>0.02154601586357938</v>
+        <v>0.02102517597574872</v>
       </c>
       <c r="T24">
-        <v>0.02154601586357937</v>
+        <v>0.02102517597574872</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.909097</v>
+        <v>2.391584666666667</v>
       </c>
       <c r="H25">
-        <v>11.727291</v>
+        <v>7.174754</v>
       </c>
       <c r="I25">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="J25">
-        <v>0.135705283719068</v>
+        <v>0.1481535460244188</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N25">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O25">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P25">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q25">
-        <v>266.241943386906</v>
+        <v>492.8079721251271</v>
       </c>
       <c r="R25">
-        <v>2396.177490482155</v>
+        <v>4435.271749126145</v>
       </c>
       <c r="S25">
-        <v>0.02022866798838723</v>
+        <v>0.04781440703093723</v>
       </c>
       <c r="T25">
-        <v>0.02022866798838723</v>
+        <v>0.04781440703093723</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H26">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I26">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J26">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N26">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O26">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P26">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q26">
-        <v>88.47472394274067</v>
+        <v>65.86804602509999</v>
       </c>
       <c r="R26">
-        <v>796.272515484666</v>
+        <v>592.8124142258999</v>
       </c>
       <c r="S26">
-        <v>0.006722178306072022</v>
+        <v>0.006390808877127853</v>
       </c>
       <c r="T26">
-        <v>0.006722178306072021</v>
+        <v>0.006390808877127853</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H27">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I27">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J27">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>263.560998</v>
       </c>
       <c r="O27">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P27">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q27">
-        <v>81.54199507356202</v>
+        <v>58.73491981896401</v>
       </c>
       <c r="R27">
-        <v>733.8779556620581</v>
+        <v>528.6142783706761</v>
       </c>
       <c r="S27">
-        <v>0.006195439848697092</v>
+        <v>0.005698721453394715</v>
       </c>
       <c r="T27">
-        <v>0.006195439848697091</v>
+        <v>0.005698721453394715</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H28">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I28">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J28">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N28">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O28">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P28">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q28">
-        <v>82.61104073721998</v>
+        <v>91.63866090093532</v>
       </c>
       <c r="R28">
-        <v>743.4993666349799</v>
+        <v>824.747948108418</v>
       </c>
       <c r="S28">
-        <v>0.006276664352693203</v>
+        <v>0.008891187805246838</v>
       </c>
       <c r="T28">
-        <v>0.006276664352693202</v>
+        <v>0.008891187805246838</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H29">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I29">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J29">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N29">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O29">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P29">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q29">
-        <v>40.90817914138101</v>
+        <v>12.27580380424467</v>
       </c>
       <c r="R29">
-        <v>368.173612272429</v>
+        <v>110.482234238202</v>
       </c>
       <c r="S29">
-        <v>0.003108142779208552</v>
+        <v>0.001191052728300932</v>
       </c>
       <c r="T29">
-        <v>0.003108142779208551</v>
+        <v>0.001191052728300932</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H30">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I30">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J30">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q30">
-        <v>67.33194512659966</v>
+        <v>60.57721752914534</v>
       </c>
       <c r="R30">
-        <v>605.9875061393969</v>
+        <v>545.194957762308</v>
       </c>
       <c r="S30">
-        <v>0.005115781329010829</v>
+        <v>0.005877469317815235</v>
       </c>
       <c r="T30">
-        <v>0.005115781329010828</v>
+        <v>0.005877469317815235</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.928157</v>
+        <v>0.668554</v>
       </c>
       <c r="H31">
-        <v>2.784471</v>
+        <v>2.005662</v>
       </c>
       <c r="I31">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="J31">
-        <v>0.03222120326531652</v>
+        <v>0.04141548789358184</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N31">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O31">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P31">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q31">
-        <v>63.215193546786</v>
+        <v>137.7616881343147</v>
       </c>
       <c r="R31">
-        <v>568.936741921074</v>
+        <v>1239.855193208832</v>
       </c>
       <c r="S31">
-        <v>0.004802996649634819</v>
+        <v>0.01336624771169626</v>
       </c>
       <c r="T31">
-        <v>0.004802996649634819</v>
+        <v>0.01336624771169626</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H32">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I32">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J32">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="N32">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="O32">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="P32">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="Q32">
-        <v>1265.211547469924</v>
+        <v>214.2376044435</v>
       </c>
       <c r="R32">
-        <v>11386.90392722931</v>
+        <v>1928.1384399915</v>
       </c>
       <c r="S32">
-        <v>0.09612889690956718</v>
+        <v>0.02078627903688519</v>
       </c>
       <c r="T32">
-        <v>0.09612889690956718</v>
+        <v>0.02078627903688519</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H33">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I33">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J33">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>263.560998</v>
       </c>
       <c r="O33">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="P33">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="Q33">
-        <v>1166.071722784632</v>
+        <v>191.0369181803401</v>
       </c>
       <c r="R33">
-        <v>10494.64550506168</v>
+        <v>1719.33226362306</v>
       </c>
       <c r="S33">
-        <v>0.08859640006675634</v>
+        <v>0.01853524593853642</v>
       </c>
       <c r="T33">
-        <v>0.08859640006675634</v>
+        <v>0.01853524593853642</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H34">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I34">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J34">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="N34">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="O34">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="P34">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="Q34">
-        <v>1181.359353626047</v>
+        <v>298.0572276023699</v>
       </c>
       <c r="R34">
-        <v>10632.23418263442</v>
+        <v>2682.51504842133</v>
       </c>
       <c r="S34">
-        <v>0.08975793158461567</v>
+        <v>0.02891882925033909</v>
       </c>
       <c r="T34">
-        <v>0.08975793158461567</v>
+        <v>0.02891882925033909</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H35">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I35">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J35">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="N35">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="O35">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="P35">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="Q35">
-        <v>584.9975939923825</v>
+        <v>39.92738449593</v>
       </c>
       <c r="R35">
-        <v>5264.978345931442</v>
+        <v>359.34646046337</v>
       </c>
       <c r="S35">
-        <v>0.04444724956683607</v>
+        <v>0.003873931271315545</v>
       </c>
       <c r="T35">
-        <v>0.04444724956683607</v>
+        <v>0.003873931271315545</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H36">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I36">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J36">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="N36">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="O36">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="P36">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="Q36">
-        <v>962.8643152695014</v>
+        <v>197.02904140122</v>
       </c>
       <c r="R36">
-        <v>8665.778837425512</v>
+        <v>1773.26137261098</v>
       </c>
       <c r="S36">
-        <v>0.07315700262579462</v>
+        <v>0.01911662821087908</v>
       </c>
       <c r="T36">
-        <v>0.07315700262579462</v>
+        <v>0.01911662821087908</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.27288633333333</v>
+        <v>2.17449</v>
       </c>
       <c r="H37">
-        <v>39.818659</v>
+        <v>6.52347</v>
       </c>
       <c r="I37">
-        <v>0.4607715811697535</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="J37">
-        <v>0.4607715811697536</v>
+        <v>0.1347049965593128</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="N37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="O37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="P37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="Q37">
-        <v>903.9936977107941</v>
+        <v>448.07362341888</v>
       </c>
       <c r="R37">
-        <v>8135.943279397148</v>
+        <v>4032.66261076992</v>
       </c>
       <c r="S37">
-        <v>0.06868410041618365</v>
+        <v>0.04347408285135742</v>
       </c>
       <c r="T37">
-        <v>0.06868410041618365</v>
+        <v>0.04347408285135742</v>
       </c>
     </row>
   </sheetData>
